--- a/osi.test.xlsx
+++ b/osi.test.xlsx
@@ -231,9 +231,6 @@
     <t xml:space="preserve">Ne postoji rjesenje za unos dogadjaja koji ne postoji, odnosno pogresnog unosa imena dogadjaja. Po SRS-u nakon prikaza nove liste dogadjaja se prikazuje meni  sa ponudjenim opcijama: Delete event i Back, a u nasoj aplikaciji ga nema.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Administrator ima mogucnost da 3 puta pogrijesi e-mail adresu ili lozinku, a ne 4. Po SRS-u se unosi e-mail adresa, a ne korisnicko ime. Po SRS-u nakon svake pogresne prijave admin ima mogucnost da se vrati na pocetak I da pokusa ponovo</t>
-  </si>
-  <si>
     <t xml:space="preserve">  U nasoj aplikaciji postoji samo opcija pokusaj ponovo, a ne I vracanje na pocetak. </t>
   </si>
   <si>
@@ -283,6 +280,9 @@
   </si>
   <si>
     <t>Administrator user access ili Guest user access je navedeno u SRS-u.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Administrator ima mogucnost da 3 puta pogrijesi e-mail adresu ili lozinku, a ne 4. Po SRS-u se unosi e-mail adresa, a ne korisnicko ime. Po SRS-u nakon svake pogresne prijave admin ima mogucnost da se vrati na pocetak I da pokusa ponovo. Umjesto lozinke trebaju biti prikazane *.</t>
   </si>
 </sst>
 </file>
@@ -684,7 +684,7 @@
   <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,19 +750,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>12</v>
@@ -774,7 +774,7 @@
         <v>14</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -798,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>12</v>
@@ -810,7 +810,7 @@
         <v>14</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -822,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
@@ -834,7 +834,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>12</v>
@@ -846,7 +846,7 @@
         <v>14</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>

--- a/osi.test.xlsx
+++ b/osi.test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="61">
   <si>
     <t>Uslovi</t>
   </si>
@@ -249,40 +249,287 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Meni za administratora: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test za utvrdjivanje da li je sve u redu sa menijem za administratora.</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">1. Instalirana aplikacija    </t>
   </si>
   <si>
     <t xml:space="preserve">1.Pokretanje aplikacije      </t>
   </si>
   <si>
-    <t xml:space="preserve"> Nije pregledno. . U SRS-u se spominje opcija Login, koja ovdje ne postoji.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> "Admin" I "Guest" nije navedeno u SRS-u kao opcija.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Na nekoliko mjesta upisati "\n". U SRS-u pise sljedece: Ovaj zahtjev sistema počinje kada korisnik na početnom meniju izabere opciju Login.</t>
-  </si>
-  <si>
     <t>Administrator user access ili Guest user access je navedeno u SRS-u.</t>
   </si>
   <si>
     <t xml:space="preserve"> Administrator ima mogucnost da 3 puta pogrijesi e-mail adresu ili lozinku, a ne 4. Po SRS-u se unosi e-mail adresa, a ne korisnicko ime. Po SRS-u nakon svake pogresne prijave admin ima mogucnost da se vrati na pocetak I da pokusa ponovo. Umjesto lozinke trebaju biti prikazane *.</t>
+  </si>
+  <si>
+    <t>Funkcija ne ispisuje elemente elemente kako treba.</t>
+  </si>
+  <si>
+    <t>09.01.2020.</t>
+  </si>
+  <si>
+    <t>Dodati jos jedan string za ID</t>
+  </si>
+  <si>
+    <t>Prosao</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dodavanje dogadjaja(Add event): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test za utvrdjivanje ispravnosti rada funkcije za dodavanje dogadjaja.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Pokretanje aplikacije      2.Unos e-mail adrese I lozinke                3.Izbor ponudjene opcije: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Add evants </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Brisanje kategorije (Delete category):  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test za provjeru ispravnosti funkcije brisanje kategorija po izboru administratora.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Pokretanje aplikacije      2.Unos e-mail adrese I lozinke                3.Izbor ponudjene opcije: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Delete category </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dodavanje kategorije(Add category): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Test za utvrdjivanje ispravnosti rada funkcije za dodavanje kategorija.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Pokretanje aplikacije      2.Unos e-mail adrese I lozinke                3.Izbor ponudjene opcije: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Add categories </t>
+    </r>
+  </si>
+  <si>
+    <t>U slucaju da se unese kategorija koja vec postoji, bez obzira na to, bice upisana u fajl.</t>
+  </si>
+  <si>
+    <t>Kategoriju koja vec postoji ne unositi u fajl, vec ispisati da kategorija vec postoji</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">View today’s event(Pregled danasnjih dagadjaja): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test za utvrdjivanje ispravnosti fukcije za pregled danasnjih dagadjaja po izboru gosta.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Pokretanje aplikacije      2.Izbor opcije </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>View today's event</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Po SRS-u postoji opcija  koja </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All categorie,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>koja omogućava korisniku da   pregleda dogadjaje svih kategorija zajedno.</t>
+    </r>
+  </si>
+  <si>
+    <t>Dodati mogucnost izbora funkcije funkciju view events</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Comments(Komentarisanje): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test za utvrdjivanje ispravnosti funkcije po izboru gosta</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Comments(Komentarisanje): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test za utvrdjivanje ispravnosti funkcije po izboru administratora</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Pokretanje aplikacije      2.Unos e-mail adrese I lozinke                3.Izbor ponudjene opcije: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comment</t>
+    </r>
+  </si>
+  <si>
+    <t>Funkcija ne postoji</t>
+  </si>
+  <si>
+    <t>Funkcija je vec definisana samo je treba dodati u administratorski meni.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Quiz game(KVIZ): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test za utvrdjivanje ispravnosti rada kviza koji koristi gost</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Pokretanje aplikacije      2.Izbor opcije </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Quiz game</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne ispisuje kako treba </t>
+  </si>
+  <si>
+    <t>U nastavku pitanja ispisan je odgovor pod a koji je ponovo ispisan u novom redu</t>
   </si>
 </sst>
 </file>
@@ -683,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,16 +1000,16 @@
         <v>30</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>12</v>
@@ -774,7 +1021,7 @@
         <v>14</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -798,7 +1045,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>12</v>
@@ -817,24 +1064,24 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:22" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>31</v>
+      <c r="B4" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>12</v>
@@ -845,32 +1092,32 @@
       <c r="I4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>36</v>
+      <c r="J4" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:22" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>12</v>
@@ -882,31 +1129,31 @@
         <v>14</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:22" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>20</v>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>12</v>
@@ -917,35 +1164,35 @@
       <c r="I6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>24</v>
+      <c r="J6" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>25</v>
+      <c r="B7" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>28</v>
+      <c r="F7" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>13</v>
@@ -953,153 +1200,313 @@
       <c r="I7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>27</v>
+      <c r="J7" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+    <row r="8" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+    <row r="9" spans="1:22" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+    <row r="10" spans="1:22" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+    <row r="11" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+    <row r="12" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+    <row r="13" spans="1:22" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+    <row r="14" spans="1:22" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+    <row r="15" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+    <row r="16" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>

--- a/osi.test.xlsx
+++ b/osi.test.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="79">
   <si>
     <t>Uslovi</t>
   </si>
@@ -57,28 +58,10 @@
     <t>02.01.2020.</t>
   </si>
   <si>
-    <t>Sanja</t>
-  </si>
-  <si>
     <t>Windows10</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Prijava na sistem: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test za utvrdjivanje da li je sve pravilno uradjeno pri prijavi na sistem. Prilikom prijave se unose e-mail adresa I lozinka.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -101,9 +84,6 @@
     </r>
   </si>
   <si>
-    <t>1.Pokretanje aplikacije      2.Unos e-mail adrese I lozinke</t>
-  </si>
-  <si>
     <t>Nakon izbora jednog administratorskog zahtjeva I njegovog izvrsenja, program se zavrsava i ne postoji mogucnost daljeg koristenja aplikacije.</t>
   </si>
   <si>
@@ -111,6 +91,183 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Po SRS-u postoji opcija  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Back</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> koja omogućava korisniku da se vrati na početni meni nakon završetka pregledanja dogadjaja, a u nasoj aplikaciji ga nema.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dodati opciju </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Back.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Korisnik bira Delete event ako želi da nastavi brisanje dogadjaja, u tom slučaju ovaj korisnički zahtjev kreće ispočetka. Ukoliko korisnik ne želi nastaviti sa brisanjem dogadjaja, bira opciju Back, nakon čega sistem prikazuje prethodni korisnički meni. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne postoji rjesenje za unos dogadjaja koji ne postoji, odnosno pogresnog unosa imena dogadjaja. Po SRS-u nakon prikaza nove liste dogadjaja se prikazuje meni  sa ponudjenim opcijama: Delete event i Back, a u nasoj aplikaciji ga nema.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  U nasoj aplikaciji postoji samo opcija pokusaj ponovo, a ne I vracanje na pocetak. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pocetni meni: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test za utvrdjivanje da li je sve u redu sa pocetnim menijem.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Instalirana aplikacija    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Pokretanje aplikacije      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Admin" I "Guest" nije navedeno u SRS-u kao opcija.</t>
+  </si>
+  <si>
+    <t>Administrator user access ili Guest user access je navedeno u SRS-u.</t>
+  </si>
+  <si>
+    <t>Funkcija ne ispisuje elemente elemente kako treba.</t>
+  </si>
+  <si>
+    <t>09.01.2020.</t>
+  </si>
+  <si>
+    <t>Dodati jos jedan string za ID</t>
+  </si>
+  <si>
+    <t>Prosao</t>
+  </si>
+  <si>
+    <t>U slucaju da se unese kategorija koja vec postoji, bez obzira na to, bice upisana u fajl.</t>
+  </si>
+  <si>
+    <t>Kategoriju koja vec postoji ne unositi u fajl, vec ispisati da kategorija vec postoji</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Po SRS-u postoji opcija  koja </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All categorie,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>koja omogućava korisniku da   pregleda dogadjaje svih kategorija zajedno.</t>
+    </r>
+  </si>
+  <si>
+    <t>Dodati mogucnost izbora funkcije funkciju view events</t>
+  </si>
+  <si>
+    <t>Funkcija ne postoji</t>
+  </si>
+  <si>
+    <t>Funkcija je vec definisana samo je treba dodati u administratorski meni.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne ispisuje kako treba </t>
+  </si>
+  <si>
+    <t>U nastavku pitanja ispisan je odgovor pod a koji je ponovo ispisan u novom redu</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Pokretanje aplikacije      2.Unos korisnickog imena I lozinke                                         3.Izbor ponudjene opcije: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">View evants </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Administrator ima mogucnost da 3 puta pogrijesi e-mail adresu ili lozinku, a ne 4. Po SRS-u nakon svake pogresne prijave admin ima mogucnost da se vrati na pocetak I da pokusa ponovo. Umjesto lozinke trebaju biti prikazane *.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pristup korisnickom nalogu: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test za utvrdjivanje da li je sve pravilno uradjeno pri prijavi na sistem. Prilikom prijave se unose korisnicko ime I lozinka.</t>
+    </r>
+  </si>
+  <si>
+    <t>10.01.2020.</t>
+  </si>
+  <si>
+    <t>Sanja Panic</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -119,7 +276,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Prikazivanje dogadjaja (View events): </t>
+      <t xml:space="preserve">Prikazivanje dogadjaja: </t>
     </r>
     <r>
       <rPr>
@@ -133,11 +290,203 @@
     </r>
   </si>
   <si>
-    <t>1.Pokretanje aplikacije      2.Unos e-mail adrese I lozinke                3.Izbor aktivnosti koji zelim izvrsiti</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.Pokretanje aplikacije      2.Unos e-mail adrese I lozinke                3.Izbor ponudjene opcije: </t>
+    <r>
+      <t xml:space="preserve">Brisanje dogadjaja:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test za brisanje dogadjaja po izboru administratora.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Prikazivanje dogadjaja : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test za provjeru mogucnosti pregleda svih dogadjaja.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dodavanje dogadjaja: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test za utvrdjivanje ispravnosti rada funkcije za dodavanje dogadjaja.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dodavanje kategorije: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Test za utvrdjivanje ispravnosti rada funkcije za dodavanje kategorija.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Brisanje kategorije :  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test za provjeru ispravnosti funkcije brisanje kategorija po izboru administratora.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prikaz danasnjih dagadjaja: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test za utvrdjivanje ispravnosti fukcije za pregled danasnjih dagadjaja po izboru gosta.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Komentarisanje: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test za utvrdjivanje ispravnosti funkcije po izboru gosta</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Komentarisanje: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test za utvrdjivanje ispravnosti funkcije po izboru administratora</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Igranje kviza: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test za utvrdjivanje ispravnosti rada kviza koji koristi gost</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mijenjanje podataka o dogadjaju: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test za utvrdjivanje ispravnosti rada funkcije za mijenjanje podataka o odabranom dogadjaju. Administrator ima mogucnost da izabere koju informaciju zeli da promijeni.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sortiranje dogadjaja po zeljenom kriterijumu: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Test za utvrdjivanje ispravnosti rada funkcije za sortiranje dogadjaja po zeljenom kriterijumu. Sortiranje moze da se vrsi po datumu I imenu.</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Pokretanje aplikacije               2.Unos korisnickog imena I lozinke</t>
+  </si>
+  <si>
+    <t>1.Pokretanje aplikacije               2.Unos korisnickog imena I lozinke                                       3.Izbor aktivnosti koji zelim izvrsiti</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Pokretanje aplikacije                2.Unos korisnickog imena I lozinke                                         3.Izbor ponudjene opcije: </t>
     </r>
     <r>
       <rPr>
@@ -153,7 +502,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Po SRS-u postoji opcija  </t>
+      <t xml:space="preserve">1.Pokretanje aplikacije                2.Unos korisnickog imena I lozinke                                       3.Izbor ponudjene opcije: </t>
     </r>
     <r>
       <rPr>
@@ -164,22 +513,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Back</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> koja omogućava korisniku da se vrati na početni meni nakon završetka pregledanja dogadjaja, a u nasoj aplikaciji ga nema.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dodati opciju </t>
+      <t xml:space="preserve">Delete evants </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Pokretanje aplikacije               2.Unos korisnickog imena I lozinke                                       3.Izbor ponudjene opcije: </t>
     </r>
     <r>
       <rPr>
@@ -190,27 +529,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Back.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Brisanje dogadjaja (Delete event):  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test za brisanje dogadjaja po izboru administratora.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.Pokretanje aplikacije      2.Unos e-mail adrese I lozinke                3.Izbor ponudjene opcije: </t>
+      <t xml:space="preserve">View evants </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Pokretanje aplikacije                 2.Unos e-mail adrese I lozinke                3.Izbor ponudjene opcije: </t>
     </r>
     <r>
       <rPr>
@@ -225,74 +549,8 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Korisnik bira Delete event ako želi da nastavi brisanje dogadjaja, u tom slučaju ovaj korisnički zahtjev kreće ispočetka. Ukoliko korisnik ne želi nastaviti sa brisanjem dogadjaja, bira opciju Back, nakon čega sistem prikazuje prethodni korisnički meni. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ne postoji rjesenje za unos dogadjaja koji ne postoji, odnosno pogresnog unosa imena dogadjaja. Po SRS-u nakon prikaza nove liste dogadjaja se prikazuje meni  sa ponudjenim opcijama: Delete event i Back, a u nasoj aplikaciji ga nema.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  U nasoj aplikaciji postoji samo opcija pokusaj ponovo, a ne I vracanje na pocetak. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pocetni meni: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test za utvrdjivanje da li je sve u redu sa pocetnim menijem.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Instalirana aplikacija    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Pokretanje aplikacije      </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "Admin" I "Guest" nije navedeno u SRS-u kao opcija.</t>
-  </si>
-  <si>
-    <t>Administrator user access ili Guest user access je navedeno u SRS-u.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Administrator ima mogucnost da 3 puta pogrijesi e-mail adresu ili lozinku, a ne 4. Po SRS-u se unosi e-mail adresa, a ne korisnicko ime. Po SRS-u nakon svake pogresne prijave admin ima mogucnost da se vrati na pocetak I da pokusa ponovo. Umjesto lozinke trebaju biti prikazane *.</t>
-  </si>
-  <si>
-    <t>Funkcija ne ispisuje elemente elemente kako treba.</t>
-  </si>
-  <si>
-    <t>09.01.2020.</t>
-  </si>
-  <si>
-    <t>Dodati jos jedan string za ID</t>
-  </si>
-  <si>
-    <t>Prosao</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dodavanje dogadjaja(Add event): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test za utvrdjivanje ispravnosti rada funkcije za dodavanje dogadjaja.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.Pokretanje aplikacije      2.Unos e-mail adrese I lozinke                3.Izbor ponudjene opcije: </t>
+    <r>
+      <t xml:space="preserve">1.Pokretanje aplikacije                2.Unos e-mail adrese I lozinke                3.Izbor ponudjene opcije: </t>
     </r>
     <r>
       <rPr>
@@ -308,22 +566,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Brisanje kategorije (Delete category):  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test za provjeru ispravnosti funkcije brisanje kategorija po izboru administratora.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.Pokretanje aplikacije      2.Unos e-mail adrese I lozinke                3.Izbor ponudjene opcije: </t>
+      <t xml:space="preserve">1.Pokretanje aplikacije               2.Unos e-mail adrese I lozinke                3.Izbor ponudjene opcije: </t>
     </r>
     <r>
       <rPr>
@@ -334,27 +577,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">Add categories </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Pokretanje aplikacije               2.Unos e-mail adrese I lozinke                3.Izbor ponudjene opcije: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Delete category </t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Dodavanje kategorije(Add category): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Test za utvrdjivanje ispravnosti rada funkcije za dodavanje kategorija.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.Pokretanje aplikacije      2.Unos e-mail adrese I lozinke                3.Izbor ponudjene opcije: </t>
+      <t xml:space="preserve">1.Pokretanje aplikacije               2.Izbor opcije </t>
     </r>
     <r>
       <rPr>
@@ -365,33 +609,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Add categories </t>
-    </r>
-  </si>
-  <si>
-    <t>U slucaju da se unese kategorija koja vec postoji, bez obzira na to, bice upisana u fajl.</t>
-  </si>
-  <si>
-    <t>Kategoriju koja vec postoji ne unositi u fajl, vec ispisati da kategorija vec postoji</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">View today’s event(Pregled danasnjih dagadjaja): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test za utvrdjivanje ispravnosti fukcije za pregled danasnjih dagadjaja po izboru gosta.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.Pokretanje aplikacije      2.Izbor opcije </t>
+      <t>View today's event</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Pokretanje aplikacije               2.Unos e-mail adrese I lozinke                3.Izbor ponudjene opcije: </t>
     </r>
     <r>
       <rPr>
@@ -402,12 +625,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>View today's event</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Po SRS-u postoji opcija  koja </t>
+      <t>Comment</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Pokretanje aplikacije               2.Izbor opcije </t>
     </r>
     <r>
       <rPr>
@@ -418,55 +641,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>All categorie,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>koja omogućava korisniku da   pregleda dogadjaje svih kategorija zajedno.</t>
-    </r>
-  </si>
-  <si>
-    <t>Dodati mogucnost izbora funkcije funkciju view events</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Comments(Komentarisanje): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test za utvrdjivanje ispravnosti funkcije po izboru gosta</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Comments(Komentarisanje): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test za utvrdjivanje ispravnosti funkcije po izboru administratora</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.Pokretanje aplikacije      2.Unos e-mail adrese I lozinke                3.Izbor ponudjene opcije: </t>
+      <t>Quiz game</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Pokretanje aplikacije               2.Unos e-mail adrese I lozinke                3.Izbor ponudjene opcije: </t>
     </r>
     <r>
       <rPr>
@@ -477,14 +657,104 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Comment</t>
-    </r>
-  </si>
-  <si>
-    <t>Funkcija ne postoji</t>
-  </si>
-  <si>
-    <t>Funkcija je vec definisana samo je treba dodati u administratorski meni.</t>
+      <t>Change event details</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Pokretanje aplikacije                2.Unos korisnickog imena I lozinke                                         3.Izbor ponudjene opcije: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>View evants                                                           4. Izbor nacina po kojem zelite da sortirate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prikaz proslih dagadjaja: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test za utvrdjivanje ispravnosti fukcije za pregled proslih dagadjaja.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prikaz danasnjih dagadjaja: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test za utvrdjivanje ispravnosti fukcije za pregled danasnjih dagadjaja.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Pokretanje aplikacije               2.Izbor opcije </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>View past event</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Prikaz buducih dagadjaja: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test za utvrdjivanje ispravnosti fukcije za pregled buducih dagadjaja.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Pokretanje aplikacije               2.Izbor opcije </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>View future event</t>
+    </r>
+  </si>
+  <si>
+    <t>10.01.2020</t>
   </si>
   <si>
     <r>
@@ -496,22 +766,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Quiz game(KVIZ): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Test za utvrdjivanje ispravnosti rada kviza koji koristi gost</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.Pokretanje aplikacije      2.Izbor opcije </t>
+      <t xml:space="preserve">Prikaz svih dogadjaja: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test za provjeru mogucnosti pregleda svih dogadjaja.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Pokretanje aplikacije               2.Izbor opcije </t>
     </r>
     <r>
       <rPr>
@@ -522,14 +792,52 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Quiz game</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ne ispisuje kako treba </t>
-  </si>
-  <si>
-    <t>U nastavku pitanja ispisan je odgovor pod a koji je ponovo ispisan u novom redu</t>
+      <t>View future/past/future event</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ili prilikom izbora opcije</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> View events by category                                                 3.All events</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Igranje kviza: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test za utvrdjivanje ispravnosti rada kviza koji koristi gost.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -618,14 +926,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -928,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,7 +1247,7 @@
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="40.5703125" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="47.5703125" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
@@ -952,31 +1260,31 @@
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="2"/>
@@ -993,35 +1301,35 @@
       <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>34</v>
+      <c r="H2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -1029,35 +1337,35 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:22" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>29</v>
+      <c r="H3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -1065,71 +1373,71 @@
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:22" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:22" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:22" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>24</v>
+      <c r="H5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1137,35 +1445,35 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>27</v>
+      <c r="H6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1173,35 +1481,35 @@
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:22" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>38</v>
+      <c r="F7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1209,131 +1517,131 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="3"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="6"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:22" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="3"/>
+      <c r="D9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="6"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:22" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="3"/>
+      <c r="D10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="6"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:22" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>47</v>
+      <c r="F11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1341,67 +1649,67 @@
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="3"/>
+      <c r="D12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="6"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:22" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="B13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>51</v>
+      <c r="F13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1409,67 +1717,67 @@
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:22" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="3"/>
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="6"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:22" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>56</v>
+      <c r="F15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1477,72 +1785,312 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="B16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>60</v>
+      <c r="G16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+    <row r="17" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+    <row r="18" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
